--- a/documents/lecture_00/1125_Schedule_2020a.xlsx
+++ b/documents/lecture_00/1125_Schedule_2020a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8357E5-D24B-D543-93F2-5908B15458D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ADFAEA-0A2B-3441-A51C-F375E001453A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>SES #</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>QUIZ</t>
   </si>
   <si>
     <t>LECT 15</t>
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1770,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="23">
       <c r="A1" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -1779,7 +1776,7 @@
     </row>
     <row r="3" spans="1:29" ht="23">
       <c r="A3" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -1800,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1835,10 +1832,10 @@
         <v>44075</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1881,10 +1878,10 @@
         <v>44077</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7"/>
@@ -1927,7 +1924,7 @@
         <v>44082</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="28"/>
@@ -1965,16 +1962,16 @@
     </row>
     <row r="11" spans="1:29" s="25" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="16">
         <v>44084</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -1993,7 +1990,7 @@
         <v>44089</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="16" spans="1:29" ht="23">
       <c r="A16" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -2090,10 +2087,10 @@
         <v>44091</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18"/>
@@ -2160,7 +2157,7 @@
         <v>44096</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2211,7 +2208,7 @@
         <v>44103</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2231,10 +2228,10 @@
         <v>44105</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="32"/>
     </row>
@@ -2254,16 +2251,16 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="16">
         <v>44110</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="30" spans="1:29" ht="23">
       <c r="A30" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -2328,10 +2325,10 @@
         <v>44112</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -2348,7 +2345,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="9"/>
@@ -2368,10 +2365,10 @@
         <v>44119</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="34"/>
     </row>
@@ -2391,16 +2388,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="13">
         <v>44124</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -2413,16 +2410,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="13">
         <v>44126</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -2438,7 +2435,7 @@
       <c r="B44" s="23"/>
       <c r="C44" s="22"/>
       <c r="D44" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="46" spans="1:5" ht="23">
       <c r="A46" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -2473,16 +2470,16 @@
     </row>
     <row r="48" spans="1:5" s="33" customFormat="1">
       <c r="A48" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="31">
         <v>44131</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="32"/>
     </row>
@@ -2495,13 +2492,13 @@
     </row>
     <row r="50" spans="1:29" s="33" customFormat="1">
       <c r="A50" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="31">
         <v>44133</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -2519,7 +2516,7 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -2531,16 +2528,16 @@
     </row>
     <row r="54" spans="1:29" s="33" customFormat="1">
       <c r="A54" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="36">
         <v>44138</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" s="35"/>
     </row>
@@ -2553,13 +2550,13 @@
     </row>
     <row r="56" spans="1:29" s="33" customFormat="1">
       <c r="A56" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="36">
         <v>44140</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -2577,7 +2574,7 @@
       <c r="C58" s="24"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -2589,7 +2586,7 @@
     </row>
     <row r="60" spans="1:29" ht="23">
       <c r="A60" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -2634,17 +2631,15 @@
       <c r="AC61"/>
     </row>
     <row r="62" spans="1:29">
-      <c r="A62" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="9"/>
       <c r="B62" s="16">
         <v>44145</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2657,13 +2652,13 @@
     </row>
     <row r="64" spans="1:29" s="33" customFormat="1">
       <c r="A64" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="31">
         <v>43051</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
@@ -2680,7 +2675,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2692,16 +2687,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="13">
         <v>44152</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68" s="19"/>
     </row>
@@ -2714,19 +2709,19 @@
     </row>
     <row r="70" spans="1:5" s="42" customFormat="1">
       <c r="A70" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="40">
         <v>44154</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2751,13 +2746,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="16">
         <v>44166</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2801,7 +2796,7 @@
       <c r="B84" s="15"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84" s="8"/>
     </row>
